--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H2">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>181.3729438731991</v>
+        <v>173.0129678444289</v>
       </c>
       <c r="R2">
-        <v>181.3729438731991</v>
+        <v>1557.11671059986</v>
       </c>
       <c r="S2">
-        <v>0.03201367348737355</v>
+        <v>0.01789974036533347</v>
       </c>
       <c r="T2">
-        <v>0.03201367348737355</v>
+        <v>0.01789974036533347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H3">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>6.718575623897511</v>
+        <v>0.5623724824182222</v>
       </c>
       <c r="R3">
-        <v>6.718575623897511</v>
+        <v>5.061352341764001</v>
       </c>
       <c r="S3">
-        <v>0.001185878564523121</v>
+        <v>5.818246776129376E-05</v>
       </c>
       <c r="T3">
-        <v>0.001185878564523121</v>
+        <v>5.818246776129378E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6726321598774</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H4">
-        <v>29.6726321598774</v>
+        <v>21.937492</v>
       </c>
       <c r="I4">
-        <v>0.2624115604948509</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J4">
-        <v>0.2624115604948509</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>1433.584319418313</v>
+        <v>389.1310672821018</v>
       </c>
       <c r="R4">
-        <v>1433.584319418313</v>
+        <v>3502.179605538916</v>
       </c>
       <c r="S4">
-        <v>0.2530382941270558</v>
+        <v>0.04025909247853538</v>
       </c>
       <c r="T4">
-        <v>0.2530382941270558</v>
+        <v>0.04025909247853539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6726321598774</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H5">
-        <v>29.6726321598774</v>
+        <v>21.937492</v>
       </c>
       <c r="I5">
-        <v>0.2624115604948509</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J5">
-        <v>0.2624115604948509</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N5">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q5">
-        <v>53.104087398941</v>
+        <v>14.38938112758844</v>
       </c>
       <c r="R5">
-        <v>53.104087398941</v>
+        <v>129.504430148296</v>
       </c>
       <c r="S5">
-        <v>0.009373266367795102</v>
+        <v>0.001488710293862266</v>
       </c>
       <c r="T5">
-        <v>0.009373266367795102</v>
+        <v>0.001488710293862266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.40009466295379</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H6">
-        <v>7.40009466295379</v>
+        <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.06544314565194087</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J6">
-        <v>0.06544314565194087</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N6">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O6">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P6">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q6">
-        <v>357.5233775642752</v>
+        <v>702.2782329424211</v>
       </c>
       <c r="R6">
-        <v>357.5233775642752</v>
+        <v>6320.50409648179</v>
       </c>
       <c r="S6">
-        <v>0.06310553508712702</v>
+        <v>0.07265697011334921</v>
       </c>
       <c r="T6">
-        <v>0.06310553508712702</v>
+        <v>0.07265697011334921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.40009466295379</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H7">
-        <v>7.40009466295379</v>
+        <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.06544314565194087</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J7">
-        <v>0.06544314565194087</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N7">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q7">
-        <v>13.24369444626845</v>
+        <v>2.282730353271778</v>
       </c>
       <c r="R7">
-        <v>13.24369444626845</v>
+        <v>20.544573179446</v>
       </c>
       <c r="S7">
-        <v>0.002337610564813855</v>
+        <v>0.0002361688904404659</v>
       </c>
       <c r="T7">
-        <v>0.002337610564813855</v>
+        <v>0.0002361688904404659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.2498731795101</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H8">
-        <v>72.2498731795101</v>
+        <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.6389457418013116</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J8">
-        <v>0.6389457418013116</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N8">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q8">
-        <v>3490.633547844156</v>
+        <v>1579.524828217508</v>
       </c>
       <c r="R8">
-        <v>3490.633547844156</v>
+        <v>14215.72345395757</v>
       </c>
       <c r="S8">
-        <v>0.6161227814821162</v>
+        <v>0.1634159836568676</v>
       </c>
       <c r="T8">
-        <v>0.6161227814821162</v>
+        <v>0.1634159836568676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.2498731795101</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H9">
-        <v>72.2498731795101</v>
+        <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.6389457418013116</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J9">
-        <v>0.6389457418013116</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N9">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q9">
-        <v>129.3031086428215</v>
+        <v>58.40804465307156</v>
       </c>
       <c r="R9">
-        <v>129.3031086428215</v>
+        <v>525.672401877644</v>
       </c>
       <c r="S9">
-        <v>0.02282296031919541</v>
+        <v>0.006042835098215731</v>
       </c>
       <c r="T9">
-        <v>0.02282296031919541</v>
+        <v>0.006042835098215732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H10">
+        <v>33.194114</v>
+      </c>
+      <c r="I10">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J10">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>261.7898243840411</v>
+      </c>
+      <c r="R10">
+        <v>2356.10841945637</v>
+      </c>
+      <c r="S10">
+        <v>0.02708450092003592</v>
+      </c>
+      <c r="T10">
+        <v>0.02708450092003593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H11">
+        <v>33.194114</v>
+      </c>
+      <c r="I11">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J11">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>0.8509384888597776</v>
+      </c>
+      <c r="R11">
+        <v>7.658446399738</v>
+      </c>
+      <c r="S11">
+        <v>8.803720442016387E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.803720442016391E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H12">
+        <v>33.194114</v>
+      </c>
+      <c r="I12">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J12">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>588.8029957254802</v>
+      </c>
+      <c r="R12">
+        <v>5299.226961529322</v>
+      </c>
+      <c r="S12">
+        <v>0.06091694097342785</v>
+      </c>
+      <c r="T12">
+        <v>0.06091694097342788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H13">
+        <v>33.194114</v>
+      </c>
+      <c r="I13">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J13">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>21.77289717250355</v>
+      </c>
+      <c r="R13">
+        <v>195.956074552532</v>
+      </c>
+      <c r="S13">
+        <v>0.002252601127213518</v>
+      </c>
+      <c r="T13">
+        <v>0.00225260112721352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H14">
+        <v>223.248695</v>
+      </c>
+      <c r="I14">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J14">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>1760.680723637219</v>
+      </c>
+      <c r="R14">
+        <v>15846.12651273497</v>
+      </c>
+      <c r="S14">
+        <v>0.1821581827767513</v>
+      </c>
+      <c r="T14">
+        <v>0.1821581827767513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H15">
+        <v>223.248695</v>
+      </c>
+      <c r="I15">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J15">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>5.723029907146111</v>
+      </c>
+      <c r="R15">
+        <v>51.507269164315</v>
+      </c>
+      <c r="S15">
+        <v>0.000592098677441724</v>
+      </c>
+      <c r="T15">
+        <v>0.0005920986774417242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H16">
+        <v>223.248695</v>
+      </c>
+      <c r="I16">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J16">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>3960.024370820804</v>
+      </c>
+      <c r="R16">
+        <v>35640.21933738724</v>
+      </c>
+      <c r="S16">
+        <v>0.4096999719802673</v>
+      </c>
+      <c r="T16">
+        <v>0.4096999719802674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H17">
+        <v>223.248695</v>
+      </c>
+      <c r="I17">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J17">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>146.4347227382122</v>
+      </c>
+      <c r="R17">
+        <v>1317.91250464391</v>
+      </c>
+      <c r="S17">
+        <v>0.01514998297607663</v>
+      </c>
+      <c r="T17">
+        <v>0.01514998297607664</v>
       </c>
     </row>
   </sheetData>
